--- a/Grafiken.xlsx
+++ b/Grafiken.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099E237-ED91-45DA-A364-BBA8072078F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F43BD67-2C55-4FFB-A6FB-2D291E78204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{03F7E0C1-1BD2-40D6-82A5-F616FE4D3B76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Actual</t>
   </si>
@@ -90,6 +90,36 @@
   </si>
   <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         0.0       0.94      0.79      0.86     12723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.0       0.50      0.82      0.62      3299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.79     16022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.72      0.80      0.74     16022</t>
+  </si>
+  <si>
+    <t>weighted avg       0.85      0.79      0.81     16022</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Presence</t>
   </si>
 </sst>
 </file>
@@ -97,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +165,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -215,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -236,6 +280,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -248,21 +307,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1702,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948EE48-415A-4484-81E4-95DB0D8CA52B}">
-  <dimension ref="E10:O16"/>
+  <dimension ref="E10:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,19 +1771,19 @@
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="11" t="s">
+    <row r="10" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="5:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="5:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1737,8 +1791,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="5:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="10" t="s">
+    <row r="12" spans="5:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1769,8 +1823,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+    <row r="13" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="14"/>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1783,80 +1837,150 @@
       <c r="J13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="8">
         <v>0.94480200000000003</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="8">
         <v>0.91259400000000002</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="9">
         <v>0.94361799999999996</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="8">
         <v>0.92682399999999998</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="8">
         <v>0.93542800000000004</v>
       </c>
+      <c r="Q13" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="8">
         <v>0.94647700000000001</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <v>0.91852800000000001</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <v>0.931867</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="8">
         <v>0.92548299999999994</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="8">
         <v>0.91673899999999997</v>
       </c>
+      <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="J15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="10">
         <v>0.94525599999999999</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="10">
         <v>0.91724099999999997</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="10">
         <v>0.944554</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="11">
         <v>0.93014799999999997</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="10">
         <v>0.93813599999999997</v>
       </c>
+      <c r="Q15" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="10">
         <v>0.94572500000000004</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="10">
         <v>0.91209499999999999</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="10">
         <v>0.94702399999999998</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="12">
         <v>0.92968499999999998</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="10">
         <v>0.93157299999999998</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q20" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="S24" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="T24" s="20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="T25" s="20">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/Grafiken.xlsx
+++ b/Grafiken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F43BD67-2C55-4FFB-A6FB-2D291E78204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE58CEA-8DD8-443F-8982-DA23466AE322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{03F7E0C1-1BD2-40D6-82A5-F616FE4D3B76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03F7E0C1-1BD2-40D6-82A5-F616FE4D3B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Actual</t>
   </si>
@@ -121,13 +121,41 @@
   <si>
     <t>Presence</t>
   </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Precision Score</t>
+  </si>
+  <si>
+    <t>Recall Score</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Anwesenheit</t>
+  </si>
+  <si>
+    <t>Abwesenheit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -259,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -295,6 +323,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -307,16 +345,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -875,7 +924,1013 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$R$27:$Y$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$28:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7512-4631-842F-ECB6F90052F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$R$27:$Y$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$29:$Y$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7512-4631-842F-ECB6F90052F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$R$27:$Y$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7512-4631-842F-ECB6F90052F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1833876575"/>
+        <c:axId val="1530945551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1833876575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530945551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530945551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833876575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anwesenheit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$I$40:$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$41:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EB1-4310-AA04-7BEDB44F9B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abwesenheit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$I$40:$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$42:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EB1-4310-AA04-7BEDB44F9B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1628176127"/>
+        <c:axId val="1628180287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1628176127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628180287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1628180287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628176127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1418,6 +2473,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1451,6 +3512,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B27D72-C450-4232-9124-7FD941264A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2611901-A837-4B8D-8D78-D57C5B2D50D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1756,10 +3889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948EE48-415A-4484-81E4-95DB0D8CA52B}">
-  <dimension ref="E10:T25"/>
+  <dimension ref="E10:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,21 +3902,22 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="5:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +3926,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1824,7 +3958,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +3986,7 @@
       <c r="O13" s="8">
         <v>0.93542800000000004</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1875,7 +4009,7 @@
       <c r="O14" s="8">
         <v>0.91673899999999997</v>
       </c>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="J15" s="7" t="s">
@@ -1896,7 +4030,7 @@
       <c r="O15" s="10">
         <v>0.93813599999999997</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1919,33 +4053,55 @@
       <c r="O16" s="10">
         <v>0.93157299999999998</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q17" s="17"/>
+    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="J17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q18" s="18" t="s">
+    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="J18" s="26">
+        <v>0.93542800000000004</v>
+      </c>
+      <c r="Q18" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q19" s="18" t="s">
+    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="J19" s="26">
+        <v>0.91673899999999997</v>
+      </c>
+      <c r="Q19" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q20" s="18" t="s">
+    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="J20" s="21">
+        <v>0.93813599999999997</v>
+      </c>
+      <c r="Q20" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="21">
+        <v>0.93157299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="19" t="s">
+      <c r="R23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="S23" s="7" t="s">
@@ -1955,32 +4111,351 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="7">
         <v>0</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="16">
         <v>0.94</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="16">
         <v>0.79</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="16">
         <v>0.86</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
       <c r="Q25" s="7">
         <v>1</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="16">
         <v>0.5</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="16">
         <v>0.82</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="16">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="Q27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="Q28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="T28" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="V28" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="W28" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="X28" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="Q29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="W29" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="X29" s="30">
+        <v>0.83</v>
+      </c>
+      <c r="Y29" s="30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="Q30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="W30" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="X30" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="Y30" s="30">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0.96</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="N35" s="27">
+        <v>0.87</v>
+      </c>
+      <c r="O35" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="P35" s="30">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="M36" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="N36" s="27">
+        <v>0.87</v>
+      </c>
+      <c r="O36" s="30">
+        <v>0.83</v>
+      </c>
+      <c r="P36" s="30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="N37" s="27">
+        <v>0.87</v>
+      </c>
+      <c r="O37" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="P37" s="30">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="K41" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="N41" s="27">
+        <v>0.91</v>
+      </c>
+      <c r="O41" s="30">
+        <v>0.93</v>
+      </c>
+      <c r="P41" s="30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H42" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="M42" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="N42" s="27">
+        <v>0.69</v>
+      </c>
+      <c r="O42" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="P42" s="30">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/Grafiken.xlsx
+++ b/Grafiken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE58CEA-8DD8-443F-8982-DA23466AE322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF64EE-78D5-41FA-A58A-1439A7BCFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03F7E0C1-1BD2-40D6-82A5-F616FE4D3B76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Actual</t>
   </si>
@@ -148,6 +148,15 @@
   <si>
     <t>Abwesenheit</t>
   </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>Genauigkeit</t>
+  </si>
+  <si>
+    <t>Genauikgeit_PT</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +164,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -333,18 +342,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -365,7 +362,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1464,7 +1473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Anwesenheit</c:v>
+                  <c:v>Abwesenheit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1559,7 +1568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Abwesenheit</c:v>
+                  <c:v>Anwesenheit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1850,6 +1859,384 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$51:$U$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$52:$U$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>93.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A35-4E16-BCE0-64C3BE5D46F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genauikgeit_PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$51:$U$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$53:$U$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A35-4E16-BCE0-64C3BE5D46F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1540773263"/>
+        <c:axId val="1540781167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1540773263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540781167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540781167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540773263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1970,6 +2357,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2977,6 +3404,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3584,6 +4514,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03115C17-15F6-49E8-8393-E5B45612324F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3889,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948EE48-415A-4484-81E4-95DB0D8CA52B}">
-  <dimension ref="E10:Y42"/>
+  <dimension ref="E10:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,22 +4868,23 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="5:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3926,7 +4893,7 @@
       </c>
     </row>
     <row r="12" spans="5:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -3958,7 +4925,7 @@
       </c>
     </row>
     <row r="13" spans="5:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="18"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4058,13 +5025,13 @@
       </c>
     </row>
     <row r="17" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="J18" s="26">
+      <c r="J18" s="22">
         <v>0.93542800000000004</v>
       </c>
       <c r="Q18" s="14" t="s">
@@ -4072,7 +5039,7 @@
       </c>
     </row>
     <row r="19" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="J19" s="26">
+      <c r="J19" s="22">
         <v>0.91673899999999997</v>
       </c>
       <c r="Q19" s="14" t="s">
@@ -4080,7 +5047,7 @@
       </c>
     </row>
     <row r="20" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="J20" s="21">
+      <c r="J20" s="17">
         <v>0.93813599999999997</v>
       </c>
       <c r="Q20" s="14" t="s">
@@ -4088,12 +5055,12 @@
       </c>
     </row>
     <row r="21" spans="5:25" x14ac:dyDescent="0.25">
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="21">
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="17">
         <v>0.93157299999999998</v>
       </c>
     </row>
@@ -4158,13 +5125,13 @@
       <c r="V27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="W27" s="28" t="s">
+      <c r="W27" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="X27" s="28" t="s">
+      <c r="X27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Y27" s="28" t="s">
+      <c r="Y27" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4178,7 +5145,7 @@
       <c r="S28" s="8">
         <v>0.95</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="25">
         <v>0.94</v>
       </c>
       <c r="U28" s="8">
@@ -4187,13 +5154,13 @@
       <c r="V28" s="8">
         <v>0.73</v>
       </c>
-      <c r="W28" s="27">
+      <c r="W28" s="23">
         <v>0.8</v>
       </c>
-      <c r="X28" s="30">
+      <c r="X28" s="26">
         <v>0.84</v>
       </c>
-      <c r="Y28" s="30">
+      <c r="Y28" s="26">
         <v>0.81</v>
       </c>
     </row>
@@ -4216,13 +5183,13 @@
       <c r="V29" s="8">
         <v>0.81</v>
       </c>
-      <c r="W29" s="27">
+      <c r="W29" s="23">
         <v>0.79</v>
       </c>
-      <c r="X29" s="30">
+      <c r="X29" s="26">
         <v>0.83</v>
       </c>
-      <c r="Y29" s="30">
+      <c r="Y29" s="26">
         <v>0.86</v>
       </c>
     </row>
@@ -4245,13 +5212,13 @@
       <c r="V30" s="11">
         <v>0.75</v>
       </c>
-      <c r="W30" s="27">
+      <c r="W30" s="23">
         <v>0.8</v>
       </c>
-      <c r="X30" s="30">
+      <c r="X30" s="26">
         <v>0.84</v>
       </c>
-      <c r="Y30" s="30">
+      <c r="Y30" s="26">
         <v>0.83</v>
       </c>
     </row>
@@ -4274,13 +5241,13 @@
       <c r="M34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="P34" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4294,7 +5261,7 @@
       <c r="J35" s="8">
         <v>0.96</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="25">
         <v>0.96</v>
       </c>
       <c r="L35" s="8">
@@ -4303,13 +5270,13 @@
       <c r="M35" s="8">
         <v>0.86</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="23">
         <v>0.87</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="26">
         <v>0.84</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="26">
         <v>0.81</v>
       </c>
     </row>
@@ -4329,16 +5296,16 @@
       <c r="L36" s="8">
         <v>0.96</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="25">
         <v>0.8</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="23">
         <v>0.87</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="26">
         <v>0.83</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="26">
         <v>0.86</v>
       </c>
     </row>
@@ -4361,13 +5328,13 @@
       <c r="M37" s="11">
         <v>0.82</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="23">
         <v>0.87</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="26">
         <v>0.84</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="26">
         <v>0.83</v>
       </c>
     </row>
@@ -4390,19 +5357,19 @@
       <c r="M40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N40" s="28" t="s">
+      <c r="N40" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="28" t="s">
+      <c r="O40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P40" s="28" t="s">
+      <c r="P40" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H41" s="31" t="s">
-        <v>36</v>
+      <c r="H41" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="I41" s="8">
         <v>0.98</v>
@@ -4410,7 +5377,7 @@
       <c r="J41" s="8">
         <v>0.97</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="25">
         <v>0.97</v>
       </c>
       <c r="L41" s="8">
@@ -4419,19 +5386,19 @@
       <c r="M41" s="8">
         <v>0.95</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="23">
         <v>0.91</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="26">
         <v>0.93</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P41" s="26">
         <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H42" s="31" t="s">
-        <v>37</v>
+      <c r="H42" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="I42" s="8">
         <v>0.91</v>
@@ -4445,17 +5412,97 @@
       <c r="L42" s="8">
         <v>0.92</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="25">
         <v>0.51</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="23">
         <v>0.69</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="26">
         <v>0.76</v>
       </c>
-      <c r="P42" s="30">
+      <c r="P42" s="26">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="51" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="Q51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U51" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52">
+        <v>93.84</v>
+      </c>
+      <c r="R52">
+        <v>94.08</v>
+      </c>
+      <c r="S52">
+        <v>92.04</v>
+      </c>
+      <c r="T52">
+        <v>90.8</v>
+      </c>
+      <c r="U52">
+        <v>88.71</v>
+      </c>
+    </row>
+    <row r="53" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q53">
+        <v>94.26</v>
+      </c>
+      <c r="R53">
+        <v>94.43</v>
+      </c>
+      <c r="S53">
+        <v>92.88</v>
+      </c>
+      <c r="T53">
+        <v>91.63</v>
+      </c>
+      <c r="U53">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="54" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54">
+        <v>0.44</v>
+      </c>
+      <c r="R54">
+        <v>0.38</v>
+      </c>
+      <c r="S54">
+        <f>S53-S52</f>
+        <v>0.8399999999999892</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54:U54" si="0">T53-T52</f>
+        <v>0.82999999999999829</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>4.0000000000006253E-2</v>
       </c>
     </row>
   </sheetData>
